--- a/excelchecker/tests/test.xlsx
+++ b/excelchecker/tests/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelChecker\excelchecker\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongg\chrhong\ExcelChecker\excelchecker\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -403,18 +403,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>

--- a/excelchecker/tests/test.xlsx
+++ b/excelchecker/tests/test.xlsx
@@ -755,16 +755,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -798,7 +798,7 @@
         <v>4988630</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -815,7 +815,7 @@
         <v>5333035</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5333148</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -864,7 +864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -926,7 +926,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -943,7 +943,7 @@
         <v>5293525</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>4976168</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>5345647</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>5316116</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>5272961</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>4990291</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>4982040</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>4976170</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>5264444</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>5305218</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>3940735</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>3940734</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>4088832</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>5266796</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>5308264</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>5264477</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>2830444</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>5273283</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2897333</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>5255314</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>4940194</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>5302122</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>3932475</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>4890832</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>44</v>
       </c>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>47</v>
       </c>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>97</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>5271540</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>83</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>4980605</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>90</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>4941699</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>91</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>5302884</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>91</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>5269790</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>50</v>
       </c>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>98</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>4937987</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>51</v>
       </c>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>28</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4995863</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>86</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>4928594</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>86</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>4076930</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>86</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>4327230</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>86</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>2872277</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>86</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>4921322</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>86</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4954905</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>83</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>5262663</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>83</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3920706</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>83</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>3955393</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>80</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>4089258</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>83</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>5257072</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>83</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3922794</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>83</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>5257077</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>83</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>4992560</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>83</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>4058941</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>80</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>4976252</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>80</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>5269330</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>80</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>4976251</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>97</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>5271539</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>97</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>5259951</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>83</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>5255310</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>83</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>4946237</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>5263134</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>83</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>5264443</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>85</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>5267974</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>5257057</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>5265278</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>29</v>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>93</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>4994692</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>83</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>4983020</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>4946239</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>83</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>4990276</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>83</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>4980644</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>83</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>5261421</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>83</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>5255312</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>83</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>5263530</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>5264426</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>83</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>5262903</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>83</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>5255313</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>83</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>5256541</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>83</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>4943051</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>83</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>5257187</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>28</v>
       </c>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>28</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>28</v>
       </c>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>83</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>5266422</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>83</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>3819900</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>83</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>3945252</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>28</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>83</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>4938765</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>5269879</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>83</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>5265267</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>83</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>5265266</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>83</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>3968563</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>85</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>3943449</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>90</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>3287818</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>101</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>5297747</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>90</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>5255187</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>101</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>5288830</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>90</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>4990798</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>90</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>5258983</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>90</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>5321114</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>90</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>5271464</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>29</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>29</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>101</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>5270760</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>85</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>83</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>5291706</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>83</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>5262662</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>83</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>5262030</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>83</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>3963983</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>53</v>
       </c>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>102</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>5340588</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>53</v>
       </c>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>85</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5254651</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>93</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>3927948</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>93</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>5257728</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>76</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5267994</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>77</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>5318121</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>77</v>
       </c>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>103</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>78</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>95</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>85</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>5254599</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>79</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>5311304</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>101</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>5258898</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>85</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>104</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>87</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>4995266</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>81</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>97</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>5259952</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>87</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>78</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>78</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>32</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>50</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>45</v>
       </c>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>45</v>
       </c>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>28</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>25</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>65</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>94</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>5302029</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>94</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>5302120</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>94</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>5302123</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>47</v>
       </c>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>105</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>25</v>
       </c>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>28</v>
       </c>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>65</v>
       </c>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>68</v>
       </c>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>68</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>68</v>
       </c>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>69</v>
       </c>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>69</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>69</v>
       </c>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>69</v>
       </c>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>70</v>
       </c>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>71</v>
       </c>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>70</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>72</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>72</v>
       </c>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>73</v>
       </c>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>73</v>
       </c>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>74</v>
       </c>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>74</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>74</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>72</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>75</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>75</v>
       </c>
@@ -5930,7 +5930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5943,7 +5943,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
